--- a/DataDriven/TGM-akt.xlsx
+++ b/DataDriven/TGM-akt.xlsx
@@ -7,19 +7,20 @@
     <sheet state="visible" name="PD1-10" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="PD11-20" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="PD21-25" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="stage_sheet" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_8193AABE_24E5_4BDB_BF51_CA1595EC83F5_.wvu.FilterData">'Post Data'!$B$1:$B$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_75564149_076B_4A94_B796_027EED3E7828_.wvu.FilterData">'Post Data'!$B$1:$B$1000</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8193AABE-24E5-4BDB-BF51-CA1595EC83F5}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{75564149-076B-4A94-B796-027EED3E7828}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="2188">
   <si>
     <t>Id</t>
   </si>
@@ -8327,12 +8328,21 @@
   <si>
     <t>tgm+auto+chadha.jewellers@instamojo.com</t>
   </si>
+  <si>
+    <t>amit_kt55</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>amit_kt71</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -8425,6 +8435,11 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8495,7 +8510,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8568,6 +8583,9 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -8589,6 +8607,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -20402,7 +20424,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8193AABE-24E5-4BDB-BF51-CA1595EC83F5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{75564149-076B-4A94-B796-027EED3E7828}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$B$1000">
         <filterColumn colId="0">
           <filters>
@@ -22512,4 +22534,58 @@
   </hyperlinks>
   <drawing r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="24" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" s="24" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>